--- a/plots/openclose/openclose_decades/decades_openclose_stats.xlsx
+++ b/plots/openclose/openclose_decades/decades_openclose_stats.xlsx
@@ -949,7 +949,7 @@
         <v>4.8</v>
       </c>
       <c r="BV2">
-        <v>93.67999999999999</v>
+        <v>93.68000000000001</v>
       </c>
     </row>
     <row r="3">
